--- a/src/test/resources/TestData/TestDataSheet.xlsx
+++ b/src/test/resources/TestData/TestDataSheet.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataraaj\eclipse-workspace\Frameworks\DataDriven_KeyworkDrivenAndTestNG\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataraaj\eclipse-workspace\Frameworks\TestDriven_testNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62105B-999A-4A99-8CF2-3E8AE745604A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C76AB-A96B-44FA-9BFC-BD28CF44E10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RunManager" sheetId="1" r:id="rId1"/>
-    <sheet name="KeywordSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="DataSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="DataSheet" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>ExecutionStatus</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Keyword1</t>
-  </si>
-  <si>
-    <t>Keyword2</t>
-  </si>
-  <si>
-    <t>Keyword3</t>
-  </si>
-  <si>
-    <t>Keyword4</t>
-  </si>
-  <si>
     <t>AmazonMobileSearch</t>
   </si>
   <si>
@@ -59,12 +39,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>ClickOnTodaysDeal</t>
-  </si>
-  <si>
     <t>SearchText</t>
   </si>
   <si>
@@ -74,19 +48,13 @@
     <t>Laptop</t>
   </si>
   <si>
-    <t>getProductNameAndValue</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>AmazonToday's Deals1</t>
-  </si>
-  <si>
-    <t>AmazonToday's Deals2</t>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -418,226 +386,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555F2229-1894-4810-AA1A-8B09BEC531F1}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D02FD7-E288-4061-9ED6-6375DDF65944}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555F2229-1894-4810-AA1A-8B09BEC531F1}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
